--- a/Table/Table_xls/b变身卡配置.xlsx
+++ b/Table/Table_xls/b变身卡配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -143,6 +143,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -152,17 +248,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,120 +272,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +309,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,163 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +518,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -538,47 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,168 +601,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/Table/Table_xls/b变身卡配置.xlsx
+++ b/Table/Table_xls/b变身卡配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -143,6 +143,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,6 +166,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -158,67 +203,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -255,40 +256,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,45 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,11 +538,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,165 +598,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/Table/Table_xls/b变身卡配置.xlsx
+++ b/Table/Table_xls/b变身卡配置.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>道具id</t>
   </si>
@@ -43,73 +43,28 @@
     </r>
   </si>
   <si>
-    <t>新郎</t>
+    <t>速度锦衣</t>
   </si>
   <si>
-    <t>刺客</t>
+    <t>气血上限锦衣</t>
   </si>
   <si>
-    <t>蒙面侠</t>
+    <t>魔法值锦衣</t>
   </si>
   <si>
-    <t>侠客</t>
+    <t>物理伤害锦衣</t>
   </si>
   <si>
-    <t>武神</t>
+    <t>法术伤害锦衣</t>
   </si>
   <si>
-    <t>武松</t>
+    <t>物理防御锦衣</t>
   </si>
   <si>
-    <t>帅气男孩</t>
+    <t>魔法防御锦衣</t>
   </si>
   <si>
-    <t>兔子舞</t>
-  </si>
-  <si>
-    <t>京剧师</t>
-  </si>
-  <si>
-    <t>阳光男孩</t>
-  </si>
-  <si>
-    <t>武林高手</t>
-  </si>
-  <si>
-    <t>高富帅</t>
-  </si>
-  <si>
-    <t>熊宝宝</t>
-  </si>
-  <si>
-    <t>白富美</t>
-  </si>
-  <si>
-    <t>兔宝贝</t>
-  </si>
-  <si>
-    <t>潘金莲</t>
-  </si>
-  <si>
-    <t>圣诞女人</t>
-  </si>
-  <si>
-    <t>七仙女</t>
-  </si>
-  <si>
-    <t>黑玫瑰</t>
-  </si>
-  <si>
-    <t>新娘</t>
-  </si>
-  <si>
-    <t>公主</t>
-  </si>
-  <si>
-    <t>郡主</t>
-  </si>
-  <si>
-    <t>苗家姑娘</t>
+    <t>全属性锦衣</t>
   </si>
   <si>
     <t>取消锦衣</t>
@@ -120,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,15 +92,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,16 +117,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,46 +188,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,8 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,39 +229,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,85 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,85 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,8 +469,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -529,11 +480,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +502,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,172 +550,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -774,12 +723,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,7 +785,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1128,17 +1081,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
-    <col min="3" max="3" width="9.57142857142857" style="1"/>
-    <col min="4" max="16382" width="9.14285714285714" style="1"/>
+    <col min="1" max="2" width="9.13888888888889" style="1"/>
+    <col min="3" max="3" width="9.57407407407407" style="1"/>
+    <col min="4" max="16382" width="9.13888888888889" style="1"/>
     <col min="16383" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1163,8 +1116,8 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>12960000</v>
+      <c r="C2" s="5">
+        <v>360</v>
       </c>
       <c r="D2">
         <v>6801</v>
@@ -1178,128 +1131,128 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>12960000</v>
+      <c r="C3" s="5">
+        <v>360</v>
       </c>
       <c r="D3">
         <v>6802</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="3">
         <v>101002</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>12960000</v>
+      <c r="C4" s="5">
+        <v>360</v>
       </c>
       <c r="D4">
         <v>6803</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="3">
         <v>101003</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>12960000</v>
+      <c r="C5" s="5">
+        <v>360</v>
       </c>
       <c r="D5">
         <v>6804</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="3">
         <v>101004</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>12960000</v>
+      <c r="C6" s="5">
+        <v>360</v>
       </c>
       <c r="D6">
         <v>6805</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3">
         <v>101005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>12960000</v>
+      <c r="C7" s="5">
+        <v>360</v>
       </c>
       <c r="D7">
         <v>6806</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3">
         <v>101006</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>12960000</v>
+      <c r="C8" s="5">
+        <v>360</v>
       </c>
       <c r="D8">
         <v>6807</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3">
         <v>101007</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>12960000</v>
+      <c r="C9" s="5">
+        <v>360</v>
       </c>
       <c r="D9">
         <v>6808</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="3">
         <v>101008</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12960000</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>360</v>
       </c>
       <c r="D10">
         <v>6809</v>
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="3">
         <v>101009</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12960000</v>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>360</v>
       </c>
       <c r="D11">
         <v>6810</v>
@@ -1310,226 +1263,16 @@
       <c r="A12" s="3">
         <v>101010</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>12960000</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>6811</v>
       </c>
       <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>101011</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D13">
-        <v>6812</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>101012</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D14">
-        <v>6813</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>101013</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D15">
-        <v>6814</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>101014</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D16">
-        <v>6815</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>101015</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D17">
-        <v>6816</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>101016</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D18">
-        <v>6817</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>101017</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D19">
-        <v>6818</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>101018</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D20">
-        <v>6819</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>101019</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D21">
-        <v>6820</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>101020</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D22">
-        <v>6821</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>101021</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D23">
-        <v>6822</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>101022</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D24">
-        <v>6823</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>101023</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1">
-        <v>12960000</v>
-      </c>
-      <c r="D25">
-        <v>6824</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>101024</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>6825</v>
-      </c>
-      <c r="E26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
